--- a/output/1Y_P89_1VAL-D.xlsx
+++ b/output/1Y_P89_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>17.6195</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>567.553</v>
       </c>
-      <c r="G2" s="1">
-        <v>567.553</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.125700000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.6195</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.125700000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>17.6646</v>
       </c>
+      <c r="E3" s="1">
+        <v>567.553</v>
+      </c>
       <c r="F3" s="1">
         <v>566.104</v>
       </c>
-      <c r="G3" s="1">
-        <v>1133.657</v>
-      </c>
       <c r="H3" s="1">
-        <v>19921.7537</v>
+        <v>9973.6088</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.642</v>
+        <v>9973.6088</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.6195</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19921.7537</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0013</v>
+        <v>-0.0026</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>17.2588</v>
       </c>
+      <c r="E4" s="1">
+        <v>1133.657</v>
+      </c>
       <c r="F4" s="1">
         <v>579.4146</v>
       </c>
-      <c r="G4" s="1">
-        <v>1713.0715</v>
-      </c>
       <c r="H4" s="1">
-        <v>29412.2387</v>
+        <v>19464.0964</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.5124</v>
+        <v>19464.0964</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.642</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29412.2387</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.017</v>
+        <v>-0.0255</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>16.8469</v>
       </c>
+      <c r="E5" s="1">
+        <v>1713.0715</v>
+      </c>
       <c r="F5" s="1">
         <v>593.581</v>
       </c>
-      <c r="G5" s="1">
-        <v>2306.6525</v>
-      </c>
       <c r="H5" s="1">
-        <v>38658.5737</v>
+        <v>28710.3933</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.3411</v>
+        <v>28710.3933</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>17.5124</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.47</v>
       </c>
-      <c r="L5" s="1">
-        <v>724.6292999999999</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-9275.370699999999</v>
+        <v>479.5369</v>
       </c>
       <c r="O5" s="1">
-        <v>724.6292999999999</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39383.203</v>
+        <v>-9520.463100000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0007</v>
+        <v>-0.0256</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>16.9739</v>
       </c>
+      <c r="E6" s="1">
+        <v>2306.6525</v>
+      </c>
       <c r="F6" s="1">
-        <v>594.4761</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2901.1287</v>
+        <v>592.6712</v>
       </c>
       <c r="H6" s="1">
-        <v>48987.8786</v>
+        <v>38949.6733</v>
       </c>
       <c r="I6" s="1">
-        <v>50090.5787</v>
+        <v>479.5369</v>
       </c>
       <c r="J6" s="1">
-        <v>17.2659</v>
+        <v>39429.2102</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40059.9421</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.3671</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10090.5787</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>634.0506</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>49621.9292</v>
+        <v>-10059.9421</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0048</v>
+        <v>0.0186</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>17.6787</v>
       </c>
+      <c r="E7" s="1">
+        <v>2899.3238</v>
+      </c>
       <c r="F7" s="1">
-        <v>570.7761</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3471.9047</v>
+        <v>569.0431</v>
       </c>
       <c r="H7" s="1">
-        <v>61060.3885</v>
+        <v>50990.4069</v>
       </c>
       <c r="I7" s="1">
-        <v>60181.1573</v>
+        <v>419.5948</v>
       </c>
       <c r="J7" s="1">
-        <v>17.3338</v>
+        <v>51410.0016</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50119.8842</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.2867</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10090.5787</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>543.4719</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>61603.8604</v>
+        <v>-10059.9421</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0332</v>
+        <v>0.0401</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>17.7792</v>
       </c>
+      <c r="E8" s="1">
+        <v>3468.3668</v>
+      </c>
       <c r="F8" s="1">
-        <v>567.5496000000001</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4039.4544</v>
+        <v>565.8265</v>
       </c>
       <c r="H8" s="1">
-        <v>71445.8296</v>
+        <v>61345.0044</v>
       </c>
       <c r="I8" s="1">
-        <v>70271.736</v>
+        <v>359.6527</v>
       </c>
       <c r="J8" s="1">
-        <v>17.3963</v>
+        <v>61704.6571</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60179.8263</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.3511</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10090.5787</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>452.8933</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>71898.7228</v>
+        <v>-10059.9421</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0041</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>18.0055</v>
       </c>
+      <c r="E9" s="1">
+        <v>4034.1933</v>
+      </c>
       <c r="F9" s="1">
-        <v>560.4165</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4599.8708</v>
+        <v>558.715</v>
       </c>
       <c r="H9" s="1">
-        <v>82393.80650000001</v>
+        <v>72261.27770000001</v>
       </c>
       <c r="I9" s="1">
-        <v>80362.3146</v>
+        <v>299.7106</v>
       </c>
       <c r="J9" s="1">
-        <v>17.4706</v>
+        <v>72560.98820000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70239.7684</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.4111</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10090.5787</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>362.3146</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>82756.1211</v>
+        <v>-10059.9421</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0105</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>18.1364</v>
       </c>
+      <c r="E10" s="1">
+        <v>4592.9083</v>
+      </c>
       <c r="F10" s="1">
-        <v>556.3715999999999</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5156.2425</v>
+        <v>554.6824</v>
       </c>
       <c r="H10" s="1">
-        <v>93030.47380000001</v>
+        <v>82866.629</v>
       </c>
       <c r="I10" s="1">
-        <v>90452.8933</v>
+        <v>239.7684</v>
       </c>
       <c r="J10" s="1">
-        <v>17.5424</v>
+        <v>83106.39750000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80299.71060000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.4834</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10090.5787</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>271.736</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>93302.20970000001</v>
+        <v>-10059.9421</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0059</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>18.2605</v>
       </c>
+      <c r="E11" s="1">
+        <v>5147.5907</v>
+      </c>
       <c r="F11" s="1">
-        <v>552.5905</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5708.833</v>
+        <v>550.9127</v>
       </c>
       <c r="H11" s="1">
-        <v>103705.518</v>
+        <v>93510.103</v>
       </c>
       <c r="I11" s="1">
-        <v>100543.4719</v>
+        <v>179.8263</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6119</v>
+        <v>93689.9293</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90359.65270000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.5538</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10090.5787</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>181.1573</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>103886.6754</v>
+        <v>-10059.9421</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0057</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>18.0221</v>
       </c>
+      <c r="E12" s="1">
+        <v>5698.5034</v>
+      </c>
       <c r="F12" s="1">
-        <v>559.9003</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6268.7332</v>
+        <v>558.2003</v>
       </c>
       <c r="H12" s="1">
-        <v>112389.6108</v>
+        <v>102166.1886</v>
       </c>
       <c r="I12" s="1">
-        <v>110634.0506</v>
+        <v>119.8842</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6485</v>
+        <v>102286.0729</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100419.5948</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6221</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10090.5787</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>90.5787</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>112480.1895</v>
+        <v>-10059.9421</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0123</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>18.2846</v>
       </c>
+      <c r="E13" s="1">
+        <v>6256.7038</v>
+      </c>
       <c r="F13" s="1">
-        <v>551.8621000000001</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6820.5954</v>
+        <v>550.1866</v>
       </c>
       <c r="H13" s="1">
-        <v>124065.2661</v>
+        <v>113808.19</v>
       </c>
       <c r="I13" s="1">
-        <v>120724.6293</v>
+        <v>59.9421</v>
       </c>
       <c r="J13" s="1">
-        <v>17.7</v>
+        <v>113868.1322</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110479.5369</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.6578</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10090.5787</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>124065.2661</v>
+        <v>-10059.9421</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0129</v>
+        <v>0.0141</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>16.485</v>
       </c>
+      <c r="E14" s="1">
+        <v>6806.8904</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6820.5954</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6256.7038</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>111630.2793</v>
       </c>
       <c r="I14" s="1">
-        <v>120724.6293</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.7</v>
+        <v>111630.2793</v>
       </c>
       <c r="K14" s="1">
+        <v>110479.5369</v>
+      </c>
+      <c r="L14" s="1">
+        <v>16.2305</v>
+      </c>
+      <c r="M14" s="1">
         <v>1.538</v>
       </c>
-      <c r="L14" s="1">
-        <v>9441.0681</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>121296.1044</v>
+        <v>8660.5293</v>
       </c>
       <c r="O14" s="1">
-        <v>121296.1044</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121296.1044</v>
+        <v>111267.9683</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.09520000000000001</v>
+        <v>-0.0988</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>17.6195</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>567.553</v>
       </c>
       <c r="G2" s="1">
-        <v>567.553</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.125700000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.6195</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.125700000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>17.6646</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>567.553</v>
       </c>
       <c r="F3" s="1">
         <v>566.104</v>
       </c>
       <c r="G3" s="1">
-        <v>1133.657</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19921.7537</v>
+        <v>9973.6088</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.642</v>
+        <v>9973.6088</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.6195</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19921.7537</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0013</v>
+        <v>-0.0026</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>17.2588</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1133.657</v>
       </c>
       <c r="F4" s="1">
         <v>579.4146</v>
       </c>
       <c r="G4" s="1">
-        <v>1713.0715</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>29412.2387</v>
+        <v>19464.0964</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.5124</v>
+        <v>19464.0964</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.642</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29412.2387</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.017</v>
+        <v>-0.0255</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>16.8469</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1713.0715</v>
       </c>
       <c r="F5" s="1">
         <v>593.581</v>
       </c>
       <c r="G5" s="1">
-        <v>2306.6525</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>38658.5737</v>
+        <v>28710.3933</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.3411</v>
+        <v>28710.3933</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>17.5124</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.47</v>
       </c>
-      <c r="L5" s="1">
-        <v>724.6292999999999</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-9275.370699999999</v>
+        <v>479.5369</v>
       </c>
       <c r="O5" s="1">
-        <v>724.6292999999999</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39383.203</v>
+        <v>-9520.463100000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0007</v>
+        <v>-0.0256</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>16.9739</v>
       </c>
       <c r="E6" s="1">
+        <v>2306.6525</v>
+      </c>
+      <c r="F6" s="1">
+        <v>617.3912</v>
+      </c>
+      <c r="G6" s="1">
         <v>50000</v>
       </c>
-      <c r="F6" s="1">
-        <v>631.8306</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2938.4831</v>
-      </c>
       <c r="H6" s="1">
-        <v>49618.6383</v>
+        <v>38949.6733</v>
       </c>
       <c r="I6" s="1">
-        <v>50724.6293</v>
+        <v>479.5369</v>
       </c>
       <c r="J6" s="1">
-        <v>17.2622</v>
+        <v>39429.2102</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40479.5369</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.549</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10724.6293</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>49618.6383</v>
+        <v>-10479.5369</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0048</v>
+        <v>0.0186</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>17.6787</v>
       </c>
       <c r="E7" s="1">
+        <v>2924.0438</v>
+      </c>
+      <c r="F7" s="1">
+        <v>487.5671</v>
+      </c>
+      <c r="G7" s="1">
         <v>60000</v>
       </c>
-      <c r="F7" s="1">
-        <v>473.1277</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3411.6108</v>
-      </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>51425.1575</v>
       </c>
       <c r="I7" s="1">
-        <v>59088.9125</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.3199</v>
+        <v>51425.1575</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49099.0893</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.7915</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-8364.2832</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>1635.7168</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>61635.7168</v>
+        <v>-8619.5524</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0338</v>
+        <v>0.0404</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>17.7792</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3411.6108</v>
       </c>
       <c r="F8" s="1">
         <v>546.0982</v>
       </c>
       <c r="G8" s="1">
-        <v>3957.7091</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>60341.1611</v>
       </c>
       <c r="I8" s="1">
-        <v>68798.10159999999</v>
+        <v>1380.4476</v>
       </c>
       <c r="J8" s="1">
-        <v>17.3833</v>
+        <v>61721.6087</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>58808.2785</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.2377</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-9709.189200000001</v>
       </c>
-      <c r="O8" s="1">
-        <v>1926.5276</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71926.5276</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0041</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>18.0055</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3957.7091</v>
       </c>
       <c r="F9" s="1">
         <v>508.5207</v>
       </c>
       <c r="G9" s="1">
-        <v>4466.2297</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>70891.2761</v>
       </c>
       <c r="I9" s="1">
-        <v>77954.2705</v>
+        <v>1671.2584</v>
       </c>
       <c r="J9" s="1">
-        <v>17.4542</v>
+        <v>72562.53449999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>67964.4474</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.1727</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9156.168900000001</v>
       </c>
-      <c r="O9" s="1">
-        <v>2770.3587</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82770.3587</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0103</v>
+        <v>0.0117</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>18.1364</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4466.2297</v>
       </c>
       <c r="F10" s="1">
         <v>522.0478000000001</v>
       </c>
       <c r="G10" s="1">
-        <v>4988.2775</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>80581.05650000001</v>
       </c>
       <c r="I10" s="1">
-        <v>87422.33869999999</v>
+        <v>2515.0895</v>
       </c>
       <c r="J10" s="1">
-        <v>17.5256</v>
+        <v>83096.14599999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>77432.5156</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.3373</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-9468.0682</v>
       </c>
-      <c r="O10" s="1">
-        <v>3302.2905</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93302.2905</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0057</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>18.2605</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>4988.2775</v>
       </c>
       <c r="F11" s="1">
         <v>516.5722</v>
       </c>
       <c r="G11" s="1">
-        <v>5504.8498</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>90616.0523</v>
       </c>
       <c r="I11" s="1">
-        <v>96855.2058</v>
+        <v>3047.0213</v>
       </c>
       <c r="J11" s="1">
-        <v>17.5945</v>
+        <v>93663.0736</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>86865.3827</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.4139</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-9432.867099999999</v>
       </c>
-      <c r="O11" s="1">
-        <v>3869.4234</v>
-      </c>
-      <c r="P11" s="1">
-        <v>103869.4234</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0055</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>18.0221</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5504.8498</v>
       </c>
       <c r="F12" s="1">
         <v>630.5986</v>
       </c>
       <c r="G12" s="1">
-        <v>6135.4484</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>98694.2496</v>
       </c>
       <c r="I12" s="1">
-        <v>108219.9172</v>
+        <v>3614.1542</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6385</v>
+        <v>102308.4038</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>98230.094</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.8443</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-11364.7113</v>
       </c>
-      <c r="O12" s="1">
-        <v>2504.7121</v>
-      </c>
-      <c r="P12" s="1">
-        <v>112504.7121</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.012</v>
+        <v>-0.0131</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>18.2846</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6135.4484</v>
       </c>
       <c r="F13" s="1">
         <v>461.6555</v>
       </c>
       <c r="G13" s="1">
-        <v>6597.1039</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>111602.5791</v>
       </c>
       <c r="I13" s="1">
-        <v>116661.103</v>
+        <v>2249.4428</v>
       </c>
       <c r="J13" s="1">
-        <v>17.6837</v>
+        <v>113852.022</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>106671.2799</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.3861</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-8441.185799999999</v>
       </c>
-      <c r="O13" s="1">
-        <v>4063.5262</v>
-      </c>
-      <c r="P13" s="1">
-        <v>124063.5262</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0127</v>
+        <v>0.0137</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>16.485</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6597.1039</v>
       </c>
       <c r="F14" s="1">
         <v>-6597.1039</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>108189.8646</v>
       </c>
       <c r="I14" s="1">
-        <v>116661.103</v>
+        <v>3808.257</v>
       </c>
       <c r="J14" s="1">
-        <v>17.6837</v>
+        <v>111998.1217</v>
       </c>
       <c r="K14" s="1">
+        <v>106671.2799</v>
+      </c>
+      <c r="L14" s="1">
+        <v>16.1694</v>
+      </c>
+      <c r="M14" s="1">
         <v>1.538</v>
       </c>
-      <c r="L14" s="1">
-        <v>9131.7112</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>117321.5758</v>
+        <v>8492.6877</v>
       </c>
       <c r="O14" s="1">
-        <v>121385.1021</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121385.1021</v>
+        <v>116682.5523</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0946</v>
+        <v>-0.09569999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>17.6195</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>567.553</v>
       </c>
       <c r="G2" s="1">
-        <v>567.553</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.125700000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.6195</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.125700000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>17.6646</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>567.553</v>
       </c>
       <c r="F3" s="1">
         <v>566.104</v>
       </c>
       <c r="G3" s="1">
-        <v>1133.657</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19921.7537</v>
+        <v>9973.6088</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.642</v>
+        <v>9973.6088</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.6195</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19921.7537</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0013</v>
+        <v>-0.0026</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>17.2588</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1133.657</v>
       </c>
       <c r="F4" s="1">
         <v>579.4146</v>
       </c>
       <c r="G4" s="1">
-        <v>1713.0715</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29412.2387</v>
+        <v>19464.0964</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.5124</v>
+        <v>19464.0964</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.642</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29412.2387</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.017</v>
+        <v>-0.0255</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>16.8469</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1713.0715</v>
       </c>
       <c r="F5" s="1">
         <v>593.581</v>
       </c>
       <c r="G5" s="1">
-        <v>2306.6525</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>38658.5737</v>
+        <v>28710.3933</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.3411</v>
+        <v>28710.3933</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>17.5124</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.47</v>
       </c>
-      <c r="L5" s="1">
-        <v>724.6292999999999</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-9275.370699999999</v>
+        <v>479.5369</v>
       </c>
       <c r="O5" s="1">
-        <v>724.6292999999999</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39383.203</v>
+        <v>-9520.463100000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0007</v>
+        <v>-0.0256</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>16.9739</v>
       </c>
       <c r="E6" s="1">
+        <v>2306.6525</v>
+      </c>
+      <c r="F6" s="1">
+        <v>617.3912</v>
+      </c>
+      <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
-      <c r="F6" s="1">
-        <v>631.8306</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2938.4831</v>
-      </c>
       <c r="H6" s="1">
-        <v>49618.6383</v>
+        <v>38949.6733</v>
       </c>
       <c r="I6" s="1">
-        <v>50724.6293</v>
+        <v>479.5369</v>
       </c>
       <c r="J6" s="1">
-        <v>17.2622</v>
+        <v>39429.2102</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40479.5369</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.549</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10724.6293</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>49618.6383</v>
+        <v>-10479.5369</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0048</v>
+        <v>0.0186</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>17.6787</v>
       </c>
       <c r="E7" s="1">
+        <v>2924.0438</v>
+      </c>
+      <c r="F7" s="1">
+        <v>530.4976</v>
+      </c>
+      <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
-      <c r="F7" s="1">
-        <v>516.0582000000001</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3454.5414</v>
-      </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>51425.1575</v>
       </c>
       <c r="I7" s="1">
-        <v>59847.868</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.3244</v>
+        <v>51425.1575</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49858.0448</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.0511</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-9123.2387</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>876.7613</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>61631.7801</v>
+        <v>-9378.507900000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0338</v>
+        <v>0.0404</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>17.7792</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3454.5414</v>
       </c>
       <c r="F8" s="1">
         <v>563.0305</v>
       </c>
       <c r="G8" s="1">
-        <v>4017.5719</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>61100.4729</v>
       </c>
       <c r="I8" s="1">
-        <v>69858.10030000001</v>
+        <v>621.4921000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>17.3881</v>
+        <v>61721.965</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>59868.2772</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.3303</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10010.2324</v>
       </c>
-      <c r="O8" s="1">
-        <v>866.5289</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71925.32279999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0041</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>18.0055</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4017.5719</v>
       </c>
       <c r="F9" s="1">
         <v>527.6034</v>
       </c>
       <c r="G9" s="1">
-        <v>4545.1752</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>71963.5511</v>
       </c>
       <c r="I9" s="1">
-        <v>79357.8625</v>
+        <v>611.2597</v>
       </c>
       <c r="J9" s="1">
-        <v>17.4598</v>
+        <v>72574.81080000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>69368.03939999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.2662</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9499.762199999999</v>
       </c>
-      <c r="O9" s="1">
-        <v>1366.7667</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82780.85460000001</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0104</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>18.1364</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4545.1752</v>
       </c>
       <c r="F10" s="1">
         <v>544.0406</v>
       </c>
       <c r="G10" s="1">
-        <v>5089.2158</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>82005.4151</v>
       </c>
       <c r="I10" s="1">
-        <v>89224.7999</v>
+        <v>1111.4975</v>
       </c>
       <c r="J10" s="1">
-        <v>17.5321</v>
+        <v>83116.9127</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>79234.9767</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.4328</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-9866.937400000001</v>
       </c>
-      <c r="O10" s="1">
-        <v>1499.8294</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93320.9877</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0058</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>18.2605</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5089.2158</v>
       </c>
       <c r="F11" s="1">
         <v>541.1591</v>
       </c>
       <c r="G11" s="1">
-        <v>5630.3749</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>92449.6764</v>
       </c>
       <c r="I11" s="1">
-        <v>99106.63529999999</v>
+        <v>1244.5602</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6021</v>
+        <v>93694.2366</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>89116.8121</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.5109</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-9881.8354</v>
       </c>
-      <c r="O11" s="1">
-        <v>1617.994</v>
-      </c>
-      <c r="P11" s="1">
-        <v>103898.2581</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0056</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>18.0221</v>
       </c>
       <c r="E12" s="1">
+        <v>5630.3749</v>
+      </c>
+      <c r="F12" s="1">
+        <v>630.4884</v>
+      </c>
+      <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
-      <c r="F12" s="1">
-        <v>644.6526</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6275.0275</v>
-      </c>
       <c r="H12" s="1">
-        <v>112502.4581</v>
+        <v>100944.7392</v>
       </c>
       <c r="I12" s="1">
-        <v>110724.6293</v>
+        <v>1362.7248</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6453</v>
+        <v>102307.4639</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100479.5369</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.846</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-11617.994</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>112502.4581</v>
+        <v>-11362.7248</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0123</v>
+        <v>-0.0134</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>18.2846</v>
       </c>
       <c r="E13" s="1">
+        <v>6260.8633</v>
+      </c>
+      <c r="F13" s="1">
+        <v>520.7189</v>
+      </c>
+      <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
-      <c r="F13" s="1">
-        <v>506.5547</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6781.5822</v>
-      </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>113883.8507</v>
       </c>
       <c r="I13" s="1">
-        <v>119986.7791</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.693</v>
+        <v>113883.8507</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110000.674</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.5696</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-9262.149799999999</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>737.8502</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>124093.4739</v>
+        <v>-9521.137199999999</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.013</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>16.485</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6781.5822</v>
       </c>
       <c r="F14" s="1">
         <v>-6781.5822</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>111215.2353</v>
       </c>
       <c r="I14" s="1">
-        <v>119986.7791</v>
+        <v>478.8628</v>
       </c>
       <c r="J14" s="1">
-        <v>17.693</v>
+        <v>111694.0981</v>
       </c>
       <c r="K14" s="1">
+        <v>110000.674</v>
+      </c>
+      <c r="L14" s="1">
+        <v>16.2205</v>
+      </c>
+      <c r="M14" s="1">
         <v>1.538</v>
       </c>
-      <c r="L14" s="1">
-        <v>9387.0661</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>120602.3014</v>
+        <v>8666.286899999999</v>
       </c>
       <c r="O14" s="1">
-        <v>121340.1515</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121340.1515</v>
+        <v>119881.5222</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0951</v>
+        <v>-0.0984</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>17.6195</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>567.553</v>
       </c>
       <c r="G2" s="1">
-        <v>567.553</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.125700000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.6195</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.125700000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>17.6646</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>567.553</v>
       </c>
       <c r="F3" s="1">
         <v>566.104</v>
       </c>
       <c r="G3" s="1">
-        <v>1133.657</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19921.7537</v>
+        <v>9973.6088</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.642</v>
+        <v>9973.6088</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.6195</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19921.7537</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0013</v>
+        <v>-0.0026</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>17.2588</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1133.657</v>
       </c>
       <c r="F4" s="1">
         <v>579.4146</v>
       </c>
       <c r="G4" s="1">
-        <v>1713.0715</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>29412.2387</v>
+        <v>19464.0964</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.5124</v>
+        <v>19464.0964</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.642</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29412.2387</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.017</v>
+        <v>-0.0255</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>16.8469</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1713.0715</v>
       </c>
       <c r="F5" s="1">
         <v>593.581</v>
       </c>
       <c r="G5" s="1">
-        <v>2306.6525</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>38658.5737</v>
+        <v>28710.3933</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.3411</v>
+        <v>28710.3933</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>17.5124</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.47</v>
       </c>
-      <c r="L5" s="1">
-        <v>724.6292999999999</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-9275.370699999999</v>
+        <v>479.5369</v>
       </c>
       <c r="O5" s="1">
-        <v>724.6292999999999</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39383.203</v>
+        <v>-9520.463100000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0007</v>
+        <v>-0.0256</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>16.9739</v>
       </c>
       <c r="E6" s="1">
+        <v>2306.6525</v>
+      </c>
+      <c r="F6" s="1">
+        <v>617.3912</v>
+      </c>
+      <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
-      <c r="F6" s="1">
-        <v>631.8306</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2938.4831</v>
-      </c>
       <c r="H6" s="1">
-        <v>49618.6383</v>
+        <v>38949.6733</v>
       </c>
       <c r="I6" s="1">
-        <v>50724.6293</v>
+        <v>479.5369</v>
       </c>
       <c r="J6" s="1">
-        <v>17.2622</v>
+        <v>39429.2102</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40479.5369</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.549</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10724.6293</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>49618.6383</v>
+        <v>-10479.5369</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0048</v>
+        <v>0.0186</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>17.6787</v>
       </c>
       <c r="E7" s="1">
+        <v>2924.0438</v>
+      </c>
+      <c r="F7" s="1">
+        <v>565.6525</v>
+      </c>
+      <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
-      <c r="F7" s="1">
-        <v>559.5638</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3498.0469</v>
-      </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>51425.1575</v>
       </c>
       <c r="I7" s="1">
-        <v>60616.9892</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.3288</v>
+        <v>51425.1575</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50479.5369</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.2636</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-9892.360000000001</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>107.64</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>61627.7906</v>
+        <v>-10000</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0337</v>
+        <v>0.0404</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>17.7792</v>
       </c>
       <c r="E8" s="1">
+        <v>3489.6962</v>
+      </c>
+      <c r="F8" s="1">
+        <v>562.455</v>
+      </c>
+      <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
-      <c r="F8" s="1">
-        <v>568.5093000000001</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4066.5562</v>
-      </c>
       <c r="H8" s="1">
-        <v>71925.1787</v>
+        <v>61722.2568</v>
       </c>
       <c r="I8" s="1">
-        <v>70724.6293</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.3918</v>
+        <v>61722.2568</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60479.5369</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.3309</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10107.64</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>71925.1787</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0042</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>18.0055</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4052.1512</v>
       </c>
       <c r="F9" s="1">
         <v>555.3859</v>
       </c>
       <c r="G9" s="1">
-        <v>4621.942</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82789.14969999999</v>
+        <v>72582.94289999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80724.6293</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.4655</v>
+        <v>72582.94289999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70479.53690000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.3931</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82789.14969999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0105</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>18.1364</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4607.5371</v>
       </c>
       <c r="F10" s="1">
         <v>551.3773</v>
       </c>
       <c r="G10" s="1">
-        <v>5173.3194</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93338.5797</v>
+        <v>83130.5659</v>
       </c>
       <c r="I10" s="1">
-        <v>90724.6293</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.537</v>
+        <v>83130.5659</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80479.53690000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.4669</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93338.5797</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0059</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>18.2605</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5158.9144</v>
       </c>
       <c r="F11" s="1">
         <v>547.6301</v>
       </c>
       <c r="G11" s="1">
-        <v>5720.9495</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>103925.6241</v>
+        <v>93715.8073</v>
       </c>
       <c r="I11" s="1">
-        <v>100724.6293</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6063</v>
+        <v>93715.8073</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90479.53690000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.5385</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>103925.6241</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0057</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>18.0221</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5706.5445</v>
       </c>
       <c r="F12" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6275.8238</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>112516.7341</v>
+        <v>102310.3543</v>
       </c>
       <c r="I12" s="1">
-        <v>110724.6293</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.643</v>
+        <v>102310.3543</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100479.5369</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6078</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>112516.7341</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0124</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>18.2846</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6261.4188</v>
       </c>
       <c r="F13" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G13" s="1">
-        <v>6822.7321</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>124104.1324</v>
+        <v>113893.9562</v>
       </c>
       <c r="I13" s="1">
-        <v>120724.6293</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.6945</v>
+        <v>113893.9562</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110479.5369</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.6445</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>124104.1324</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.013</v>
+        <v>0.0141</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>16.485</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6808.3272</v>
       </c>
       <c r="F14" s="1">
-        <v>-6822.7321</v>
+        <v>-6808.3272</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>111653.842</v>
       </c>
       <c r="I14" s="1">
-        <v>120724.6293</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.6945</v>
+        <v>111653.842</v>
       </c>
       <c r="K14" s="1">
+        <v>110479.5369</v>
+      </c>
+      <c r="L14" s="1">
+        <v>16.2271</v>
+      </c>
+      <c r="M14" s="1">
         <v>1.538</v>
       </c>
-      <c r="L14" s="1">
-        <v>9444.025799999999</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>121334.1032</v>
+        <v>8667.055899999999</v>
       </c>
       <c r="O14" s="1">
-        <v>121334.1032</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121334.1032</v>
+        <v>120320.8979</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.09520000000000001</v>
+        <v>-0.0988</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>17.6195</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>567.553</v>
       </c>
       <c r="G2" s="1">
-        <v>567.553</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.125700000001</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>17.6195</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.125700000001</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>17.6646</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>567.553</v>
       </c>
       <c r="F3" s="1">
         <v>566.104</v>
       </c>
       <c r="G3" s="1">
-        <v>1133.657</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19921.7537</v>
+        <v>9973.6088</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.642</v>
+        <v>9973.6088</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>17.6195</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19921.7537</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0013</v>
+        <v>-0.0026</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>17.2588</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1133.657</v>
       </c>
       <c r="F4" s="1">
         <v>579.4146</v>
       </c>
       <c r="G4" s="1">
-        <v>1713.0715</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>29412.2387</v>
+        <v>19464.0964</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>17.5124</v>
+        <v>19464.0964</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>17.642</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>29412.2387</v>
-      </c>
       <c r="Q4" s="3">
-        <v>-0.017</v>
+        <v>-0.0255</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>16.8469</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1713.0715</v>
       </c>
       <c r="F5" s="1">
         <v>593.581</v>
       </c>
       <c r="G5" s="1">
-        <v>2306.6525</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>38658.5737</v>
+        <v>28710.3933</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>17.3411</v>
+        <v>28710.3933</v>
       </c>
       <c r="K5" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>17.5124</v>
+      </c>
+      <c r="M5" s="1">
         <v>0.47</v>
       </c>
-      <c r="L5" s="1">
-        <v>724.6292999999999</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10000</v>
-      </c>
       <c r="N5" s="1">
-        <v>-9275.370699999999</v>
+        <v>479.5369</v>
       </c>
       <c r="O5" s="1">
-        <v>724.6292999999999</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>39383.203</v>
+        <v>-9520.463100000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0007</v>
+        <v>-0.0256</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>16.9739</v>
       </c>
       <c r="E6" s="1">
+        <v>2306.6525</v>
+      </c>
+      <c r="F6" s="1">
+        <v>617.3912</v>
+      </c>
+      <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
-      <c r="F6" s="1">
-        <v>631.8306</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2938.4831</v>
-      </c>
       <c r="H6" s="1">
-        <v>49618.6383</v>
+        <v>38949.6733</v>
       </c>
       <c r="I6" s="1">
-        <v>50724.6293</v>
+        <v>479.5369</v>
       </c>
       <c r="J6" s="1">
-        <v>17.2622</v>
+        <v>39429.2102</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40479.5369</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>17.549</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10724.6293</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>49618.6383</v>
+        <v>-10479.5369</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0048</v>
+        <v>0.0186</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>17.6787</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2924.0438</v>
       </c>
       <c r="F7" s="1">
         <v>565.6525</v>
       </c>
       <c r="G7" s="1">
-        <v>3504.1356</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>61627.2323</v>
+        <v>51425.1575</v>
       </c>
       <c r="I7" s="1">
-        <v>60724.6293</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>17.3294</v>
+        <v>51425.1575</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50479.5369</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>17.2636</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>61627.2323</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0337</v>
+        <v>0.0404</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>17.7792</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3489.6962</v>
       </c>
       <c r="F8" s="1">
         <v>562.455</v>
       </c>
       <c r="G8" s="1">
-        <v>4066.5906</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>71925.78750000001</v>
+        <v>61722.2568</v>
       </c>
       <c r="I8" s="1">
-        <v>70724.6293</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>17.3916</v>
+        <v>61722.2568</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60479.5369</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>17.3309</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-10000</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>71925.78750000001</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0042</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>18.0055</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4052.1512</v>
       </c>
       <c r="F9" s="1">
         <v>555.3859</v>
       </c>
       <c r="G9" s="1">
-        <v>4621.9764</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>82789.7662</v>
+        <v>72582.94289999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80724.6293</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>17.4654</v>
+        <v>72582.94289999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70479.53690000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>17.3931</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10000</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>82789.7662</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0105</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>18.1364</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4607.5371</v>
       </c>
       <c r="F10" s="1">
         <v>551.3773</v>
       </c>
       <c r="G10" s="1">
-        <v>5173.3538</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>93339.2007</v>
+        <v>83130.5659</v>
       </c>
       <c r="I10" s="1">
-        <v>90724.6293</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>17.5369</v>
+        <v>83130.5659</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80479.53690000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>17.4669</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>93339.2007</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0059</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>18.2605</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5158.9144</v>
       </c>
       <c r="F11" s="1">
         <v>547.6301</v>
       </c>
       <c r="G11" s="1">
-        <v>5720.9839</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>103926.2493</v>
+        <v>93715.8073</v>
       </c>
       <c r="I11" s="1">
-        <v>100724.6293</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>17.6062</v>
+        <v>93715.8073</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>90479.53690000001</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.5385</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>103926.2493</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0057</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>18.0221</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5706.5445</v>
       </c>
       <c r="F12" s="1">
         <v>554.8742999999999</v>
       </c>
       <c r="G12" s="1">
-        <v>6275.8582</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>112517.3512</v>
+        <v>102310.3543</v>
       </c>
       <c r="I12" s="1">
-        <v>110724.6293</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6429</v>
+        <v>102310.3543</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>100479.5369</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.6078</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>112517.3512</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0124</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>18.2846</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6261.4188</v>
       </c>
       <c r="F13" s="1">
         <v>546.9083000000001</v>
       </c>
       <c r="G13" s="1">
-        <v>6822.7665</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>124104.7585</v>
+        <v>113893.9562</v>
       </c>
       <c r="I13" s="1">
-        <v>120724.6293</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.6944</v>
+        <v>113893.9562</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>110479.5369</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.6445</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>124104.7585</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.013</v>
+        <v>0.0141</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>16.485</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>6808.3272</v>
       </c>
       <c r="F14" s="1">
-        <v>-6822.7665</v>
+        <v>-6808.3272</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>111653.842</v>
       </c>
       <c r="I14" s="1">
-        <v>120724.6293</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.6944</v>
+        <v>111653.842</v>
       </c>
       <c r="K14" s="1">
+        <v>110479.5369</v>
+      </c>
+      <c r="L14" s="1">
+        <v>16.2271</v>
+      </c>
+      <c r="M14" s="1">
         <v>1.538</v>
       </c>
-      <c r="L14" s="1">
-        <v>9444.073399999999</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0</v>
-      </c>
       <c r="N14" s="1">
-        <v>121334.7152</v>
+        <v>8667.055899999999</v>
       </c>
       <c r="O14" s="1">
-        <v>121334.7152</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121334.7152</v>
+        <v>120320.8979</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.09520000000000001</v>
+        <v>-0.0988</v>
       </c>
     </row>
   </sheetData>
@@ -4477,11 +4450,11 @@
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>16.4406</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.7</v>
+        <v>16.2305</v>
       </c>
       <c r="D3" s="1">
-        <v>17.6837</v>
+        <v>16.1694</v>
       </c>
       <c r="E3" s="1">
-        <v>17.693</v>
+        <v>16.2205</v>
       </c>
       <c r="F3" s="1">
-        <v>17.6945</v>
+        <v>16.2271</v>
       </c>
       <c r="G3" s="1">
-        <v>17.6944</v>
+        <v>16.2271</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.0596</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.0495</v>
+        <v>-0.06370000000000001</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0487</v>
+        <v>-0.0607</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.049</v>
+        <v>-0.063</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.049</v>
+        <v>-0.0633</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0489</v>
+        <v>-0.0633</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.1138</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1039</v>
+        <v>0.1154</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1034</v>
+        <v>0.1129</v>
       </c>
       <c r="E5" s="3">
-        <v>0.104</v>
+        <v>0.1152</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1041</v>
+        <v>0.1155</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1041</v>
+        <v>0.1155</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-0.7023</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.6722</v>
+        <v>-0.7282999999999999</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.6677</v>
+        <v>-0.7179</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.6665</v>
+        <v>-0.7238</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.6655</v>
+        <v>-0.7236</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.6655</v>
+        <v>-0.7236</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0201</v>
+        <v>-0.1319</v>
       </c>
       <c r="D7" s="3">
-        <v>0.022</v>
+        <v>0.0077</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0209</v>
+        <v>0.0056</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0206</v>
+        <v>0.0049</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0206</v>
+        <v>0.0049</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>10165.6974</v>
+        <v>9140.066199999999</v>
       </c>
       <c r="D8" s="1">
-        <v>9856.340399999999</v>
+        <v>8972.2246</v>
       </c>
       <c r="E8" s="1">
-        <v>10111.6953</v>
+        <v>9145.8238</v>
       </c>
       <c r="F8" s="1">
-        <v>10168.655</v>
+        <v>9146.5928</v>
       </c>
       <c r="G8" s="1">
-        <v>10168.7027</v>
+        <v>9146.5928</v>
       </c>
     </row>
   </sheetData>
